--- a/Customers_Vendors.xlsx
+++ b/Customers_Vendors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\P0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0796AC-E3A3-47E9-A6D1-C36C11444B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE779D7B-E0F7-4348-89E1-B8ECB53C1BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{614A50CF-43C8-4490-B4B7-34731EEDD18F}"/>
+    <workbookView xWindow="2592" yWindow="780" windowWidth="17280" windowHeight="8964" xr2:uid="{614A50CF-43C8-4490-B4B7-34731EEDD18F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,7 +114,7 @@
     <t>Vendors</t>
   </si>
   <si>
-    <t>Customer 4</t>
+    <t>Vendor 4</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,7 +904,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
     </row>
